--- a/exampleProblems/fasiglifam/fasiglifam.xlsx
+++ b/exampleProblems/fasiglifam/fasiglifam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dch1amk/Desktop/new_examples_with_data/fasiglifam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/fasiglifam/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D539161D-CA63-E842-AC3F-C354A02060B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="6860" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5396,21 +5396,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -5627,32 +5612,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5669,4 +5644,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>